--- a/biology/Médecine/Myopathie_avec_surcharge_en_desmine/Myopathie_avec_surcharge_en_desmine.xlsx
+++ b/biology/Médecine/Myopathie_avec_surcharge_en_desmine/Myopathie_avec_surcharge_en_desmine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La myopathie avec surcharge en desmine est un type de myopathie se manifestant par une faiblesse musculaire lentement progressive qui touche de façon plus importante les muscles des extrémités des membres que les muscles des racines (cuisse et épaule).
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Duygu Selcen, Andrew G Engel, Myofibrillar Myopathy In GeneTests: Medical Genetics Information Resource (database online). Copyright, Université de Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Duygu Selcen, Andrew G Engel, Myofibrillar Myopathy In GeneTests: Medical Genetics Information Resource (database online). Copyright, Université de Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
